--- a/Results/macroecon_models.xlsx
+++ b/Results/macroecon_models.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>MACROECONOMIC SET</t>
   </si>
@@ -41,24 +41,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>agr_gdp</t>
-  </si>
-  <si>
-    <t>dev_agri</t>
-  </si>
-  <si>
-    <t>dev_env</t>
-  </si>
-  <si>
-    <t>fdi</t>
-  </si>
-  <si>
-    <t>gdp</t>
-  </si>
-  <si>
-    <t>gdp_gr</t>
-  </si>
-  <si>
     <t>ind_gdp</t>
   </si>
   <si>
@@ -77,9 +59,6 @@
     <t>AICc</t>
   </si>
   <si>
-    <t>me.mod4</t>
-  </si>
-  <si>
     <t>for_rem:pop_den</t>
   </si>
   <si>
@@ -98,25 +77,61 @@
     <t>p value &gt;0.05 but &lt;0.1</t>
   </si>
   <si>
-    <t>me.mod5</t>
-  </si>
-  <si>
     <t>1 YEAR LAG</t>
   </si>
   <si>
     <t>me.modlag.2</t>
   </si>
   <si>
-    <t>me.modlag.4</t>
-  </si>
-  <si>
-    <t>me.modlag.5</t>
-  </si>
-  <si>
     <t>2 YEAR LAG</t>
   </si>
   <si>
     <t>me.mod2lag.2</t>
+  </si>
+  <si>
+    <t>me.mod4 (centered)</t>
+  </si>
+  <si>
+    <t>for_rem:ind_gdp</t>
+  </si>
+  <si>
+    <t>ind_gdp:pop_den</t>
+  </si>
+  <si>
+    <t>me.modlag.4 (centered</t>
+  </si>
+  <si>
+    <t>me.mod2lag.3 (centered)</t>
+  </si>
+  <si>
+    <t>me.mod5 (centered)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me.mod4a </t>
+  </si>
+  <si>
+    <t>me.modlag.5 (centered)</t>
+  </si>
+  <si>
+    <t>me.mod2lag.4 (centered)</t>
+  </si>
+  <si>
+    <t>interaction effects for_rem:pop_den</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int effect</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>% less</t>
+  </si>
+  <si>
+    <t>interaction effects of pop_den:time</t>
   </si>
 </sst>
 </file>
@@ -124,7 +139,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -154,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +194,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -192,26 +213,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,50 +523,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="13" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="6"/>
       <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="8"/>
-      <c r="O1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -552,43 +585,27 @@
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -599,357 +616,584 @@
         <v>1.0569999999999999</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4">
+      <c r="E5" s="4">
         <v>-602.4</v>
       </c>
-      <c r="O5">
+      <c r="K5">
         <v>0.99790000000000001</v>
       </c>
-      <c r="P5">
+      <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="Q5">
+      <c r="M5" s="11">
         <v>214.3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8.5288929999999999E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.077931</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4">
+        <v>-565.43539999999996</v>
+      </c>
+      <c r="F6" s="8">
+        <v>-1.45389E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-1.863247E-5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.19725529999999999</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6">
+        <v>0.998</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>222.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.1056</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.286</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2">
+        <v>791.5</v>
+      </c>
+      <c r="F7" s="8">
+        <v>-1.4540000000000001E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-2.6610000000000001E-5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-0.3367</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>222.86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8.6169999999999997E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4">
+        <v>-576.9</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-1.14E-2</v>
+      </c>
+      <c r="K8">
+        <v>0.998</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>215.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.1056</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3.286</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2">
-        <v>791.5</v>
-      </c>
-      <c r="L6" s="9">
-        <v>-1.4540000000000001E-2</v>
-      </c>
-      <c r="M6" s="2">
-        <v>-2.6610000000000001E-5</v>
-      </c>
-      <c r="N6" s="2">
-        <v>-0.3367</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.99839999999999995</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>222.86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.1021</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1.0429999999999999</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2">
-        <v>487.1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>-1.14E-2</v>
-      </c>
-      <c r="O7">
-        <v>0.998</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>215.92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="1" t="s">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="B13" s="4">
         <v>8.2839999999999997E-2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="4">
         <v>1.0029999999999999</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="10">
+      <c r="D13" s="9">
         <v>20.329999999999998</v>
       </c>
-      <c r="K12" s="4">
+      <c r="E13" s="4">
         <v>-577.5</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12">
-        <v>0.997</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>199.84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="10">
-        <v>0.16689999999999999</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-0.94979999999999998</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="2">
-        <v>-68.87</v>
-      </c>
-      <c r="K13" s="9">
-        <v>4846</v>
-      </c>
-      <c r="L13" s="10">
-        <v>-5.6529999999999997E-2</v>
-      </c>
-      <c r="M13" s="2">
-        <v>2.3970000000000001E-7</v>
-      </c>
-      <c r="N13" s="2">
-        <v>6.0679999999999996</v>
-      </c>
-      <c r="O13" s="2">
+      <c r="J13" s="3"/>
+      <c r="K13">
+        <v>0.997</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>199.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8.8925630000000006E-2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.98424520000000004</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.7158570000000002</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-432.65339999999998</v>
+      </c>
+      <c r="F14" s="9">
+        <v>-5.8829579999999999E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-1.665395E-5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.4317607</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2.051373E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>-78.149820000000005</v>
+      </c>
+      <c r="K14" s="2">
         <v>0.999</v>
       </c>
-      <c r="P13" s="2">
+      <c r="L14" s="15">
         <v>0</v>
       </c>
-      <c r="Q13" s="2">
-        <v>466.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="M14" s="12">
+        <v>466.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="4">
-        <v>0.1406</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B15" s="4">
+        <v>8.8279999999999997E-2</v>
+      </c>
+      <c r="C15" s="4">
         <v>0.95150000000000001</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="2">
+      <c r="D15" s="2">
         <v>5.5549999999999997</v>
       </c>
-      <c r="K14" s="10">
-        <v>3070</v>
-      </c>
-      <c r="L14" s="10">
+      <c r="E15" s="4">
+        <v>-484.8</v>
+      </c>
+      <c r="F15" s="9">
         <v>-3.8190000000000002E-2</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15">
         <v>0.998</v>
       </c>
-      <c r="P14">
+      <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="Q14">
+      <c r="M15" s="11">
         <v>193.02</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4">
+        <v>8.3229999999999998E-2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="D20" s="4">
+        <v>24.75</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-555.4</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="K20">
+        <v>0.998</v>
+      </c>
+      <c r="L20" s="14">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>183.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4">
+        <v>8.4519999999999998E-2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="D21" s="9">
+        <v>19.62</v>
+      </c>
+      <c r="E21" s="4">
+        <v>-496.1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>-2.2259999999999999E-2</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2">
+        <v>1.1900000000000001E-3</v>
+      </c>
+      <c r="J21" s="2">
+        <v>-8.8170000000000002</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.999</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>195.37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="B22" s="4">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="D22" s="4">
+        <v>16.96</v>
+      </c>
+      <c r="E22" s="4">
+        <v>-501.3</v>
+      </c>
+      <c r="F22" s="9">
+        <v>-2.281E-2</v>
+      </c>
+      <c r="K22">
+        <v>0.999</v>
+      </c>
+      <c r="L22" s="14">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>173.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="4">
-        <v>8.3229999999999998E-2</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.94740000000000002</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4">
-        <v>24.75</v>
-      </c>
-      <c r="K19" s="4">
-        <v>-555.4</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="O19">
-        <v>0.998</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>183.35</v>
+      <c r="I26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>8.5288929999999999E-2</v>
+      </c>
+      <c r="C27" s="8">
+        <v>-1.45389E-2</v>
+      </c>
+      <c r="D27" s="10">
+        <f>B27+C27</f>
+        <v>7.0750029999999992E-2</v>
+      </c>
+      <c r="E27">
+        <f>D27/B27*100</f>
+        <v>82.953356314823026</v>
+      </c>
+      <c r="F27">
+        <f>100-E27</f>
+        <v>17.046643685176974</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-432.65339999999998</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0.4317607</v>
+      </c>
+      <c r="J27" s="10">
+        <f>H27+I27</f>
+        <v>-432.22163929999999</v>
+      </c>
+      <c r="K27">
+        <f>J27/H27*100</f>
+        <v>99.90020633144222</v>
+      </c>
+      <c r="L27">
+        <f>100-K27</f>
+        <v>9.9793668557779824E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>0.1056</v>
+      </c>
+      <c r="C28" s="8">
+        <v>-1.4540000000000001E-2</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" ref="D28:D32" si="0">B28+C28</f>
+        <v>9.1060000000000002E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E32" si="1">D28/B28*100</f>
+        <v>86.231060606060609</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F32" si="2">100-E28</f>
+        <v>13.768939393939391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>8.8925630000000006E-2</v>
+      </c>
+      <c r="C29" s="9">
+        <v>-5.8829579999999999E-2</v>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" si="0"/>
+        <v>3.0096050000000006E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>33.844067227862205</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>66.155932772137788</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>8.8279999999999997E-2</v>
+      </c>
+      <c r="C30" s="9">
+        <v>-3.8190000000000002E-2</v>
+      </c>
+      <c r="D30" s="10">
+        <f t="shared" si="0"/>
+        <v>5.0089999999999996E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>56.739918441323056</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>43.260081558676944</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>8.4519999999999998E-2</v>
+      </c>
+      <c r="C31" s="9">
+        <v>-2.2259999999999999E-2</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" si="0"/>
+        <v>6.2259999999999996E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>73.663038334122106</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>26.336961665877894</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="C32" s="9">
+        <v>-2.281E-2</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" si="0"/>
+        <v>6.1890000000000001E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>73.069657615112163</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>26.930342384887837</v>
       </c>
     </row>
   </sheetData>
